--- a/comparativo_de_caixa.xlsx
+++ b/comparativo_de_caixa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="36">
   <si>
     <t>date</t>
   </si>
@@ -43,91 +43,91 @@
     <t>pagas_diff</t>
   </si>
   <si>
-    <t>2025-03-03</t>
+    <t>2025-05-02</t>
   </si>
   <si>
-    <t>2025-03-05</t>
+    <t>2025-05-03</t>
   </si>
   <si>
-    <t>2025-03-07</t>
+    <t>2025-05-05</t>
   </si>
   <si>
-    <t>2025-03-10</t>
+    <t>2025-05-12</t>
   </si>
   <si>
-    <t>2025-03-12</t>
+    <t>2025-05-15</t>
   </si>
   <si>
-    <t>2025-03-14</t>
+    <t>2025-05-20</t>
   </si>
   <si>
-    <t>2025-03-17</t>
+    <t>2025-05-21</t>
   </si>
   <si>
-    <t>2025-03-18</t>
+    <t>2025-05-27</t>
   </si>
   <si>
-    <t>2025-03-20</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
+    <t>2025-05-29</t>
   </si>
   <si>
     <t>soma</t>
   </si>
   <si>
-    <t>2025-03-01</t>
+    <t>2025-05-01</t>
   </si>
   <si>
-    <t>2025-03-09</t>
+    <t>2025-05-06</t>
   </si>
   <si>
-    <t>2025-03-11</t>
+    <t>2025-05-07</t>
   </si>
   <si>
-    <t>2025-03-13</t>
+    <t>2025-05-08</t>
   </si>
   <si>
-    <t>2025-03-15</t>
+    <t>2025-05-09</t>
   </si>
   <si>
-    <t>2025-03-19</t>
+    <t>2025-05-11</t>
   </si>
   <si>
-    <t>2025-03-21</t>
+    <t>2025-05-13</t>
   </si>
   <si>
-    <t>2025-03-24</t>
+    <t>2025-05-14</t>
   </si>
   <si>
-    <t>2025-03-25</t>
+    <t>2025-05-16</t>
   </si>
   <si>
-    <t>2025-03-26</t>
+    <t>2025-05-17</t>
   </si>
   <si>
-    <t>2025-03-28</t>
+    <t>2025-05-18</t>
   </si>
   <si>
-    <t>2025-03-31</t>
+    <t>2025-05-19</t>
   </si>
   <si>
-    <t>2025-03-04</t>
+    <t>2025-05-22</t>
   </si>
   <si>
-    <t>2025-03-06</t>
+    <t>2025-05-23</t>
   </si>
   <si>
-    <t>2025-03-08</t>
+    <t>2025-05-24</t>
   </si>
   <si>
-    <t>2025-03-22</t>
+    <t>2025-05-26</t>
   </si>
   <si>
-    <t>2025-03-30</t>
+    <t>2025-05-28</t>
   </si>
   <si>
-    <t>2025-03-29</t>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-05-04</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -524,7 +524,7 @@
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -555,13 +555,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <v>987.48</v>
+        <v>258.54</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>987.48</v>
+        <v>258.54</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -578,22 +578,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>728.9400000000001</v>
       </c>
       <c r="C3" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>-1000</v>
+        <v>728.9400000000001</v>
       </c>
       <c r="E3" s="2">
-        <v>-240</v>
+        <v>-142.7</v>
       </c>
       <c r="F3" s="2">
-        <v>-240</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
+        <v>-142.7</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -604,19 +604,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>987.48</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>-987.48</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>-125</v>
+        <v>-240</v>
       </c>
       <c r="F4" s="2">
-        <v>-125</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>-240</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -627,19 +627,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>258.54</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>-258.54</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
         <v>-304.49</v>
       </c>
       <c r="F5" s="2">
-        <v>-1033.43</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>728.9400000000001</v>
+        <v>-304.49</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -656,13 +656,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>-112.66</v>
+        <v>-2035.67</v>
       </c>
       <c r="F6" s="2">
-        <v>-112.66</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>-2035.67</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -673,19 +673,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>728.9400000000001</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>-728.9400000000001</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>-6685.83</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>-6685.83</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -696,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>728.9400000000001</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>-728.9400000000001</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>-2035.67</v>
+        <v>-1532.7</v>
       </c>
       <c r="F8" s="2">
-        <v>-2035.67</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>0</v>
+        <v>-1532.7</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2">
-        <v>-7000</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>-609.03</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>0</v>
+        <v>-609.03</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -739,68 +739,45 @@
         <v>15</v>
       </c>
       <c r="B10" s="2">
-        <v>0</v>
+        <v>775.62</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
       </c>
       <c r="D10" s="2">
-        <v>0</v>
+        <v>775.62</v>
       </c>
       <c r="E10" s="2">
-        <v>-6685.82</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>-6685.83</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2">
-        <v>0.01000000000021828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>-1544.9</v>
-      </c>
-      <c r="F11" s="2">
-        <v>-1544.9</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="3">
-        <v>987.48</v>
-      </c>
-      <c r="C12" s="3">
-        <v>10703.9</v>
-      </c>
-      <c r="D12" s="4">
-        <v>-9716.42</v>
-      </c>
-      <c r="E12" s="3">
-        <v>-11048.54</v>
-      </c>
-      <c r="F12" s="3">
-        <v>-11777.49</v>
-      </c>
-      <c r="G12" s="4">
-        <v>728.95</v>
+      <c r="B11" s="3">
+        <v>1763.1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1763.1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-11550.42</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>-11550.42</v>
       </c>
     </row>
   </sheetData>
@@ -810,7 +787,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -818,8 +795,9 @@
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="6" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -848,16 +826,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>1510.48</v>
       </c>
       <c r="C2" s="2">
-        <v>505.68</v>
+        <v>1510.48</v>
       </c>
       <c r="D2" s="2">
-        <v>-505.68</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -874,13 +852,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>505.68</v>
+        <v>1217.96</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>1217.96</v>
       </c>
       <c r="D3" s="2">
-        <v>505.68</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -897,19 +875,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>656.4400000000001</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2">
-        <v>656.4400000000001</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>-74.5</v>
       </c>
       <c r="F4" s="2">
-        <v>0</v>
+        <v>-74.5</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -920,19 +898,19 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>450.83</v>
+        <v>609.0599999999999</v>
       </c>
       <c r="C5" s="2">
-        <v>450.83</v>
+        <v>609.09</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>-0.0300000000000864</v>
       </c>
       <c r="E5" s="2">
-        <v>-1094.17</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>-1094.17</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -940,22 +918,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2">
-        <v>831.73</v>
+        <v>893.4</v>
       </c>
       <c r="C6" s="2">
-        <v>831.73</v>
+        <v>893.4</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>-173.88</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>-173.88</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -963,22 +941,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2">
-        <v>922.87</v>
+        <v>2150.33</v>
       </c>
       <c r="C7" s="2">
-        <v>922.87</v>
+        <v>2087.33</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>-1219.65</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>-1219.65</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -989,19 +967,19 @@
         <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>2460</v>
+        <v>678.4</v>
       </c>
       <c r="C8" s="2">
-        <v>2510</v>
+        <v>678.4</v>
       </c>
       <c r="D8" s="2">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>-1376.17</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>-1376.17</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -1009,22 +987,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2">
-        <v>180</v>
+        <v>971</v>
       </c>
       <c r="C9" s="2">
-        <v>180</v>
+        <v>971</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>-1645.71</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>-1645.71</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -1032,22 +1010,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2">
-        <v>1534</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2">
-        <v>1534</v>
+        <v>80</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>-320.35</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>-320.35</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -1055,22 +1033,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>667.8</v>
+        <v>4196.09</v>
       </c>
       <c r="C11" s="2">
-        <v>666.8</v>
+        <v>4196.09</v>
       </c>
       <c r="D11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F11" s="2">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -1078,22 +1056,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2">
-        <v>0</v>
+        <v>855.97</v>
       </c>
       <c r="C12" s="2">
-        <v>0</v>
+        <v>855.97</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>-1500</v>
+        <v>-50</v>
       </c>
       <c r="F12" s="2">
-        <v>-1500</v>
+        <v>-50</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -1101,22 +1079,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2">
-        <v>1020.1</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2">
-        <v>1020.1</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>-2500</v>
+        <v>-545.64</v>
       </c>
       <c r="F13" s="2">
-        <v>-2500</v>
+        <v>-545.64</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
@@ -1124,22 +1102,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2">
-        <v>0</v>
+        <v>409.72</v>
       </c>
       <c r="C14" s="2">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D14" s="2">
-        <v>0</v>
+        <v>344.72</v>
       </c>
       <c r="E14" s="2">
-        <v>-1440</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>-1440</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
@@ -1147,22 +1125,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2">
-        <v>1474.28</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>1474.28</v>
+        <v>344.72</v>
       </c>
       <c r="D15" s="2">
-        <v>0</v>
+        <v>-344.72</v>
       </c>
       <c r="E15" s="2">
-        <v>-330</v>
+        <v>-350</v>
       </c>
       <c r="F15" s="2">
-        <v>-330</v>
+        <v>-350</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -1170,22 +1148,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2">
-        <v>0</v>
+        <v>281.33</v>
       </c>
       <c r="C16" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2">
-        <v>0</v>
+        <v>231.33</v>
       </c>
       <c r="E16" s="2">
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>-595</v>
+        <v>0</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -1193,16 +1171,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2">
-        <v>153.4</v>
+        <v>0</v>
       </c>
       <c r="C17" s="2">
-        <v>153.4</v>
+        <v>231.33</v>
       </c>
       <c r="D17" s="2">
-        <v>0</v>
+        <v>-231.33</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -1216,16 +1194,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2">
-        <v>160</v>
+        <v>5925.05</v>
       </c>
       <c r="C18" s="2">
-        <v>160</v>
+        <v>5985.05</v>
       </c>
       <c r="D18" s="2">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="E18" s="2">
         <v>-20</v>
@@ -1239,22 +1217,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B19" s="2">
-        <v>1344.61</v>
+        <v>808.8</v>
       </c>
       <c r="C19" s="2">
-        <v>1344.61</v>
+        <v>808.8</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>0</v>
+        <v>-1250</v>
       </c>
       <c r="F19" s="2">
-        <v>0</v>
+        <v>-1250</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
@@ -1262,22 +1240,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B20" s="2">
-        <v>427.25</v>
+        <v>362.19</v>
       </c>
       <c r="C20" s="2">
-        <v>427.25</v>
+        <v>362.19</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>-1703.46</v>
+        <v>-33</v>
       </c>
       <c r="F20" s="2">
-        <v>-1703.46</v>
+        <v>-33</v>
       </c>
       <c r="G20" s="2">
         <v>0</v>
@@ -1285,22 +1263,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2">
-        <v>153.4</v>
+        <v>590.9</v>
       </c>
       <c r="C21" s="2">
-        <v>153.4</v>
+        <v>557.9</v>
       </c>
       <c r="D21" s="2">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2">
-        <v>-325</v>
+        <v>-971.79</v>
       </c>
       <c r="F21" s="2">
-        <v>-325</v>
+        <v>-971.79</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
@@ -1308,47 +1286,185 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2">
-        <v>4077.15</v>
+        <v>758.5</v>
       </c>
       <c r="C22" s="2">
-        <v>4077.15</v>
+        <v>1006</v>
       </c>
       <c r="D22" s="2">
-        <v>0</v>
+        <v>-247.5</v>
       </c>
       <c r="E22" s="2">
-        <v>0</v>
+        <v>-2582</v>
       </c>
       <c r="F22" s="2">
-        <v>0</v>
+        <v>-2582</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="3">
-        <v>17019.54</v>
-      </c>
-      <c r="C23" s="3">
-        <v>17068.54</v>
-      </c>
-      <c r="D23" s="4">
-        <v>-49</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-11204.15</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-11204.15</v>
-      </c>
-      <c r="G23" s="4">
+      <c r="A23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1442</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1424</v>
+      </c>
+      <c r="D23" s="2">
+        <v>18</v>
+      </c>
+      <c r="E23" s="2">
+        <v>-11817</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-11817</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4511.38</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4511.38</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>-999</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-999</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>-75</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-75</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2">
+        <v>395.57</v>
+      </c>
+      <c r="C26" s="2">
+        <v>395.57</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="2">
+        <v>895.9</v>
+      </c>
+      <c r="C27" s="2">
+        <v>895.9</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>-285</v>
+      </c>
+      <c r="F27" s="2">
+        <v>-285</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2488.4</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2488.4</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>-20</v>
+      </c>
+      <c r="F28" s="2">
+        <v>-20</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="3">
+        <v>32087.43</v>
+      </c>
+      <c r="C29" s="3">
+        <v>32280.96</v>
+      </c>
+      <c r="D29" s="4">
+        <v>-193.53</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-22512.17</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-22512.17</v>
+      </c>
+      <c r="G29" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1359,7 +1475,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1398,22 +1514,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>-240</v>
       </c>
       <c r="F2" s="2">
-        <v>0</v>
+        <v>-240</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -1421,13 +1537,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>72.5</v>
+        <v>203</v>
       </c>
       <c r="C3" s="2">
-        <v>72.5</v>
+        <v>203</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -1447,10 +1563,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>311</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2">
-        <v>311</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -1467,13 +1583,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2">
-        <v>609.4</v>
+        <v>200</v>
       </c>
       <c r="C5" s="2">
-        <v>609.4</v>
+        <v>200</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -1493,10 +1609,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>394.79</v>
+        <v>644</v>
       </c>
       <c r="C6" s="2">
-        <v>394.79</v>
+        <v>644</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -1513,13 +1629,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2">
-        <v>500</v>
+        <v>311.4</v>
       </c>
       <c r="C7" s="2">
-        <v>500</v>
+        <v>311.4</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -1536,22 +1652,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2">
-        <v>1046</v>
+        <v>629</v>
       </c>
       <c r="C8" s="2">
-        <v>1046</v>
+        <v>692</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>-63</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>-759.23</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>-759.23</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -1562,19 +1678,19 @@
         <v>20</v>
       </c>
       <c r="B9" s="2">
-        <v>611.74</v>
+        <v>486</v>
       </c>
       <c r="C9" s="2">
-        <v>611.74</v>
+        <v>486</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -1582,22 +1698,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2">
-        <v>455</v>
+        <v>186.75</v>
       </c>
       <c r="C10" s="2">
-        <v>455</v>
+        <v>186.75</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
+        <v>-4364.48</v>
       </c>
       <c r="F10" s="2">
-        <v>0</v>
+        <v>-4364.48</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -1605,22 +1721,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2">
-        <v>217.5</v>
+        <v>108</v>
       </c>
       <c r="C11" s="2">
-        <v>217.5</v>
+        <v>108</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>-1225</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>-1225</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -1628,22 +1744,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>350.28</v>
+        <v>423</v>
       </c>
       <c r="C12" s="2">
-        <v>350.28</v>
+        <v>423</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -1654,19 +1770,19 @@
         <v>23</v>
       </c>
       <c r="B13" s="2">
-        <v>978.9</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2">
-        <v>978.9</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>-63</v>
+        <v>-1500</v>
       </c>
       <c r="F13" s="2">
-        <v>-63</v>
+        <v>-1500</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
@@ -1674,22 +1790,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2">
-        <v>1134.51</v>
+        <v>205.12</v>
       </c>
       <c r="C14" s="2">
-        <v>1134.51</v>
+        <v>205.12</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="F14" s="2">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
@@ -1697,16 +1813,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2">
-        <v>377.4</v>
+        <v>126</v>
       </c>
       <c r="C15" s="2">
-        <v>377.4</v>
+        <v>221</v>
       </c>
       <c r="D15" s="2">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -1720,13 +1836,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2">
-        <v>159.9</v>
+        <v>97.18000000000001</v>
       </c>
       <c r="C16" s="2">
-        <v>159.9</v>
+        <v>97.18000000000001</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -1743,13 +1859,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2">
-        <v>159.9</v>
+        <v>78.75</v>
       </c>
       <c r="C17" s="2">
-        <v>159.9</v>
+        <v>78.75</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -1766,22 +1882,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2">
-        <v>304.9</v>
+        <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>304.9</v>
+        <v>63</v>
       </c>
       <c r="D18" s="2">
-        <v>0</v>
+        <v>-63</v>
       </c>
       <c r="E18" s="2">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -1789,13 +1905,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B19" s="2">
-        <v>9.9</v>
+        <v>252</v>
       </c>
       <c r="C19" s="2">
-        <v>9.9</v>
+        <v>252</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -1812,13 +1928,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B20" s="2">
-        <v>319.8</v>
+        <v>376.49</v>
       </c>
       <c r="C20" s="2">
-        <v>319.8</v>
+        <v>376.49</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
@@ -1835,16 +1951,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2">
-        <v>805.7</v>
+        <v>126</v>
       </c>
       <c r="C21" s="2">
-        <v>805.7</v>
+        <v>189</v>
       </c>
       <c r="D21" s="2">
-        <v>0</v>
+        <v>-63</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -1858,22 +1974,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2">
-        <v>319.9</v>
+        <v>315</v>
       </c>
       <c r="C22" s="2">
-        <v>319.9</v>
+        <v>126</v>
       </c>
       <c r="D22" s="2">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="E22" s="2">
-        <v>0</v>
+        <v>-540</v>
       </c>
       <c r="F22" s="2">
-        <v>0</v>
+        <v>-540</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
@@ -1881,47 +1997,139 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2">
-        <v>2173.13</v>
+        <v>236.21</v>
       </c>
       <c r="C23" s="2">
-        <v>2173.13</v>
+        <v>236.21</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>-160</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2">
-        <v>-160</v>
+        <v>0</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="3">
-        <v>11420.15</v>
-      </c>
-      <c r="C24" s="3">
-        <v>11420.15</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-2428</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-2428</v>
-      </c>
-      <c r="G24" s="4">
+      <c r="A24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="2">
+        <v>222.22</v>
+      </c>
+      <c r="C24" s="2">
+        <v>222.22</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>-70</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-70</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="2">
+        <v>497</v>
+      </c>
+      <c r="C25" s="2">
+        <v>497</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>110.68</v>
+      </c>
+      <c r="D26" s="2">
+        <v>-110.68</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>216</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-216</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5849.12</v>
+      </c>
+      <c r="C28" s="3">
+        <v>6270.8</v>
+      </c>
+      <c r="D28" s="4">
+        <v>-421.68</v>
+      </c>
+      <c r="E28" s="3">
+        <v>-8453.709999999999</v>
+      </c>
+      <c r="F28" s="3">
+        <v>-8453.709999999999</v>
+      </c>
+      <c r="G28" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1932,7 +2140,990 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3150.62</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3150.62</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2474.07</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3116.41</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-642.3399999999997</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>131194.68</v>
+      </c>
+      <c r="C4" s="2">
+        <v>133864.69</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-2670.010000000009</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-5537.93</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-5537.93</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2">
+        <v>544.0899999999999</v>
+      </c>
+      <c r="C5" s="2">
+        <v>156.3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>387.7899999999999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-121630.29</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-122030.29</v>
+      </c>
+      <c r="G5" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2">
+        <v>804.0699999999999</v>
+      </c>
+      <c r="C6" s="2">
+        <v>599.3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>204.77</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-756</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-756</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2">
+        <v>830.47</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1374.08</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-543.6099999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-984.53</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-984.53</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4884.98</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4886.87</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-1.889999999999418</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2911.01</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4199.92</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-1288.91</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-14373.15</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-14373.15</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1849.05</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1241.16</v>
+      </c>
+      <c r="D10" s="2">
+        <v>607.8900000000001</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-127.8</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-127.8</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1674.48</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1570.13</v>
+      </c>
+      <c r="D11" s="2">
+        <v>104.3500000000001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-5157.14</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-5157.14</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3583.39</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3083.67</v>
+      </c>
+      <c r="D12" s="2">
+        <v>499.7200000000007</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-2684.83</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-5684.83</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3225.54</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2344.26</v>
+      </c>
+      <c r="D13" s="2">
+        <v>881.2799999999997</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-789.25</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-789.25</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2260.29</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4881.32</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-2621.03</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-6314.43</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-6314.43</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <v>86657.39</v>
+      </c>
+      <c r="C15" s="2">
+        <v>86515.08</v>
+      </c>
+      <c r="D15" s="2">
+        <v>142.3099999999977</v>
+      </c>
+      <c r="E15" s="2">
+        <v>-58764.5</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-64764.5</v>
+      </c>
+      <c r="G15" s="2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1446.32</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1693.45</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-247.1299999999999</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="2">
+        <v>255.68</v>
+      </c>
+      <c r="C17" s="2">
+        <v>249.63</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6.050000000000011</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2">
+        <v>417.81</v>
+      </c>
+      <c r="C18" s="2">
+        <v>407.38</v>
+      </c>
+      <c r="D18" s="2">
+        <v>10.43000000000001</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-40</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-41</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2">
+        <v>258.54</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>258.54</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2">
+        <v>5305.629999999999</v>
+      </c>
+      <c r="C20" s="2">
+        <v>5744.33</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-438.7000000000007</v>
+      </c>
+      <c r="E20" s="2">
+        <v>-18115.3</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-19115.3</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4991.01</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4828.87</v>
+      </c>
+      <c r="D21" s="2">
+        <v>162.1400000000003</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1122.11</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1276.48</v>
+      </c>
+      <c r="D22" s="2">
+        <v>-154.3700000000001</v>
+      </c>
+      <c r="E22" s="2">
+        <v>-8074.64</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-8374.639999999999</v>
+      </c>
+      <c r="G22" s="2">
+        <v>299.9999999999991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="2">
+        <v>718.48</v>
+      </c>
+      <c r="C23" s="2">
+        <v>701.8</v>
+      </c>
+      <c r="D23" s="2">
+        <v>16.68000000000006</v>
+      </c>
+      <c r="E23" s="2">
+        <v>-35</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-35</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3567.58</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3062.02</v>
+      </c>
+      <c r="D24" s="2">
+        <v>505.5599999999999</v>
+      </c>
+      <c r="E24" s="2">
+        <v>-5696.15</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-5696.150000000001</v>
+      </c>
+      <c r="G24" s="2">
+        <v>9.094947017729282E-13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3">
+        <v>264127.2900000001</v>
+      </c>
+      <c r="C25" s="3">
+        <v>265797.15</v>
+      </c>
+      <c r="D25" s="4">
+        <v>-1669.86</v>
+      </c>
+      <c r="E25" s="3">
+        <v>-249080.94</v>
+      </c>
+      <c r="F25" s="3">
+        <v>-259781.94</v>
+      </c>
+      <c r="G25" s="4">
+        <v>10701</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2">
+        <v>38723.15</v>
+      </c>
+      <c r="C2" s="2">
+        <v>38723.15</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-399.99</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-399.99</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.01</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.01</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-39788.69</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-39788.69</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-487.91</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-487.91</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-2223.51</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-2223.51</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-2348.18</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-2348.18</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2">
+        <v>477.5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>477.5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-7092.37</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-7092.37</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3151.56</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3151.56</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-507.57</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-507.57</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>25815.44</v>
+      </c>
+      <c r="C10" s="2">
+        <v>25815.44</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-12010.04</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-12010.04</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.818989403545856E-12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-604.54</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-604.54</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-403.02</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-403.02</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>382.03</v>
+      </c>
+      <c r="C13" s="2">
+        <v>382.03</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-666.08</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-666.08</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-2912.3</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-2912.3</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>-1477.9</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-1477.9</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>68551.53</v>
+      </c>
+      <c r="C16" s="3">
+        <v>68551.53</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>-70922.10000000001</v>
+      </c>
+      <c r="F16" s="3">
+        <v>-70922.10000000001</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1941,579 +3132,6 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2">
-        <v>6485.7</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>6485.7</v>
-      </c>
-      <c r="E2" s="2">
-        <v>-88.45</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>-88.45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1306.01</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1306.01</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2">
-        <v>126931.12</v>
-      </c>
-      <c r="C4" s="2">
-        <v>134335.44</v>
-      </c>
-      <c r="D4" s="2">
-        <v>-7404.319999999992</v>
-      </c>
-      <c r="E4" s="2">
-        <v>-691.13</v>
-      </c>
-      <c r="F4" s="2">
-        <v>-1691.13</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>340.24</v>
-      </c>
-      <c r="D5" s="2">
-        <v>-340.24</v>
-      </c>
-      <c r="E5" s="2">
-        <v>-100485.98</v>
-      </c>
-      <c r="F5" s="2">
-        <v>-100485.98</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1.455191522836685E-11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <v>617.48</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1325.8</v>
-      </c>
-      <c r="D6" s="2">
-        <v>-708.3199999999999</v>
-      </c>
-      <c r="E6" s="2">
-        <v>-6444.67</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-6444.67</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2">
-        <v>5703.26</v>
-      </c>
-      <c r="C7" s="2">
-        <v>9163.57</v>
-      </c>
-      <c r="D7" s="2">
-        <v>-3460.309999999999</v>
-      </c>
-      <c r="E7" s="2">
-        <v>-9311.34</v>
-      </c>
-      <c r="F7" s="2">
-        <v>-9311.34</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2">
-        <v>5217.75</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3633</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1584.75</v>
-      </c>
-      <c r="E8" s="2">
-        <v>-301.9</v>
-      </c>
-      <c r="F8" s="2">
-        <v>-301.9</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1959.71</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2094.81</v>
-      </c>
-      <c r="D9" s="2">
-        <v>-135.0999999999999</v>
-      </c>
-      <c r="E9" s="2">
-        <v>-859.79</v>
-      </c>
-      <c r="F9" s="2">
-        <v>-859.79</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2">
-        <v>259.3</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1318.68</v>
-      </c>
-      <c r="D10" s="2">
-        <v>-1059.38</v>
-      </c>
-      <c r="E10" s="2">
-        <v>-2496.76</v>
-      </c>
-      <c r="F10" s="2">
-        <v>-2496.76</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1836.05</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1395.91</v>
-      </c>
-      <c r="D11" s="2">
-        <v>440.1399999999999</v>
-      </c>
-      <c r="E11" s="2">
-        <v>-5285.48</v>
-      </c>
-      <c r="F11" s="2">
-        <v>-5285.48</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2">
-        <v>13305.66</v>
-      </c>
-      <c r="C12" s="2">
-        <v>12066.24</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1239.42</v>
-      </c>
-      <c r="E12" s="2">
-        <v>-8941.23</v>
-      </c>
-      <c r="F12" s="2">
-        <v>-8941.23</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2">
-        <v>183.33</v>
-      </c>
-      <c r="C13" s="2">
-        <v>48.91</v>
-      </c>
-      <c r="D13" s="2">
-        <v>134.42</v>
-      </c>
-      <c r="E13" s="2">
-        <v>-500</v>
-      </c>
-      <c r="F13" s="2">
-        <v>-7500</v>
-      </c>
-      <c r="G13" s="2">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1107.5</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1476.39</v>
-      </c>
-      <c r="D14" s="2">
-        <v>-368.8900000000001</v>
-      </c>
-      <c r="E14" s="2">
-        <v>-801.3099999999999</v>
-      </c>
-      <c r="F14" s="2">
-        <v>-801.3099999999999</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2">
-        <v>93161.24000000001</v>
-      </c>
-      <c r="C15" s="2">
-        <v>93211.09</v>
-      </c>
-      <c r="D15" s="2">
-        <v>-49.84999999999127</v>
-      </c>
-      <c r="E15" s="2">
-        <v>-57162.44</v>
-      </c>
-      <c r="F15" s="2">
-        <v>-58358.94</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1196.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1485.69</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1902.12</v>
-      </c>
-      <c r="D16" s="2">
-        <v>-416.4300000000001</v>
-      </c>
-      <c r="E16" s="2">
-        <v>-7158.650000000001</v>
-      </c>
-      <c r="F16" s="2">
-        <v>-7131.47</v>
-      </c>
-      <c r="G16" s="2">
-        <v>-27.18000000000029</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1219</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1610.07</v>
-      </c>
-      <c r="D17" s="2">
-        <v>-391.0699999999999</v>
-      </c>
-      <c r="E17" s="2">
-        <v>-8975.85</v>
-      </c>
-      <c r="F17" s="2">
-        <v>-8952.41</v>
-      </c>
-      <c r="G17" s="2">
-        <v>-23.44000000000051</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2">
-        <v>772.73</v>
-      </c>
-      <c r="C18" s="2">
-        <v>990.23</v>
-      </c>
-      <c r="D18" s="2">
-        <v>-217.5</v>
-      </c>
-      <c r="E18" s="2">
-        <v>-905.45</v>
-      </c>
-      <c r="F18" s="2">
-        <v>-905.45</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="2">
-        <v>524.39</v>
-      </c>
-      <c r="C19" s="2">
-        <v>686.89</v>
-      </c>
-      <c r="D19" s="2">
-        <v>-162.5</v>
-      </c>
-      <c r="E19" s="2">
-        <v>-6238.21</v>
-      </c>
-      <c r="F19" s="2">
-        <v>-6238.21</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2">
-        <v>4616.8</v>
-      </c>
-      <c r="C20" s="2">
-        <v>4511.29</v>
-      </c>
-      <c r="D20" s="2">
-        <v>105.5100000000002</v>
-      </c>
-      <c r="E20" s="2">
-        <v>-3036.16</v>
-      </c>
-      <c r="F20" s="2">
-        <v>-2916.61</v>
-      </c>
-      <c r="G20" s="2">
-        <v>-119.5499999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1866.13</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1836.47</v>
-      </c>
-      <c r="D21" s="2">
-        <v>29.65999999999985</v>
-      </c>
-      <c r="E21" s="2">
-        <v>-436.98</v>
-      </c>
-      <c r="F21" s="2">
-        <v>-718</v>
-      </c>
-      <c r="G21" s="2">
-        <v>281.02</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>-585.11</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>-585.11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="2">
-        <v>3168.43</v>
-      </c>
-      <c r="C23" s="2">
-        <v>2770.36</v>
-      </c>
-      <c r="D23" s="2">
-        <v>398.0699999999997</v>
-      </c>
-      <c r="E23" s="2">
-        <v>-6053.7</v>
-      </c>
-      <c r="F23" s="2">
-        <v>-5655.589999999999</v>
-      </c>
-      <c r="G23" s="2">
-        <v>-398.1100000000006</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="3">
-        <v>271727.28</v>
-      </c>
-      <c r="C24" s="3">
-        <v>274717.51</v>
-      </c>
-      <c r="D24" s="4">
-        <v>-2990.23</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-226760.59</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-234996.27</v>
-      </c>
-      <c r="G24" s="4">
-        <v>8235.68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
@@ -2544,22 +3162,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2">
-        <v>35605.02</v>
+        <v>1480.84</v>
       </c>
       <c r="C2" s="2">
-        <v>35605.02</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>1480.84</v>
       </c>
       <c r="E2" s="2">
-        <v>-298.33</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>-298.33</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -2567,22 +3185,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>0.02</v>
+        <v>259.3</v>
       </c>
       <c r="C3" s="2">
-        <v>0.02</v>
+        <v>1982.38</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>-1723.08</v>
       </c>
       <c r="E3" s="2">
-        <v>-33589.22</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>-33589.22</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -2590,22 +3208,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>1865.16</v>
       </c>
       <c r="C4" s="2">
-        <v>0.01</v>
+        <v>2153.25</v>
       </c>
       <c r="D4" s="2">
-        <v>-0.01</v>
+        <v>-288.0900000000001</v>
       </c>
       <c r="E4" s="2">
-        <v>-2634.71</v>
+        <v>-3239.36</v>
       </c>
       <c r="F4" s="2">
-        <v>-2634.71</v>
+        <v>-3239.36</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -2613,16 +3231,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2">
-        <v>1757.2</v>
+        <v>802.28</v>
       </c>
       <c r="C5" s="2">
-        <v>1757.2</v>
+        <v>795.67</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>6.610000000000014</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -2636,297 +3254,25 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2">
-        <v>23736.68</v>
+        <v>1010.47</v>
       </c>
       <c r="C6" s="2">
-        <v>23736.68</v>
+        <v>984.71</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>25.75999999999999</v>
       </c>
       <c r="E6" s="2">
-        <v>-11009.99</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>-11009.99</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="D7" s="2">
-        <v>-0.01</v>
-      </c>
-      <c r="E7" s="2">
-        <v>-1023.64</v>
-      </c>
-      <c r="F7" s="2">
-        <v>-1023.64</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="D8" s="2">
-        <v>-0.02</v>
-      </c>
-      <c r="E8" s="2">
-        <v>-2992.7</v>
-      </c>
-      <c r="F8" s="2">
-        <v>-2992.7</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>-50</v>
-      </c>
-      <c r="F9" s="2">
-        <v>-221.72</v>
-      </c>
-      <c r="G9" s="2">
-        <v>171.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>-1195.43</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1195.43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3">
-        <v>61098.95999999999</v>
-      </c>
-      <c r="C11" s="3">
-        <v>61098.99999999999</v>
-      </c>
-      <c r="D11" s="4">
-        <v>-0.04</v>
-      </c>
-      <c r="E11" s="3">
-        <v>-51598.59</v>
-      </c>
-      <c r="F11" s="3">
-        <v>-52965.74</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1367.15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1740.14</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1740.14</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2298.09</v>
-      </c>
-      <c r="D3" s="2">
-        <v>-2298.09</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2062.9</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2035.28</v>
-      </c>
-      <c r="D4" s="2">
-        <v>27.62000000000012</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>-6906.06</v>
-      </c>
-      <c r="G4" s="2">
-        <v>6906.06</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2">
-        <v>259.3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>252.69</v>
-      </c>
-      <c r="D5" s="2">
-        <v>6.610000000000014</v>
-      </c>
-      <c r="E5" s="2">
-        <v>-6906.06</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>-6906.06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2832.49</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2799.97</v>
-      </c>
-      <c r="D6" s="2">
-        <v>32.51999999999953</v>
-      </c>
-      <c r="E6" s="2">
-        <v>-3132.57</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-3132.84</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.2699999999999818</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2934,13 +3280,13 @@
         <v>20</v>
       </c>
       <c r="B7" s="2">
-        <v>391.57</v>
+        <v>265.06</v>
       </c>
       <c r="C7" s="2">
-        <v>100</v>
+        <v>258.3</v>
       </c>
       <c r="D7" s="2">
-        <v>291.57</v>
+        <v>6.759999999999991</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -2954,16 +3300,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>180.14</v>
+        <v>471.71</v>
       </c>
       <c r="C8" s="2">
-        <v>459.68</v>
+        <v>565.85</v>
       </c>
       <c r="D8" s="2">
-        <v>-279.54</v>
+        <v>-94.14000000000004</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -2977,16 +3323,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2">
-        <v>1294.73</v>
+        <v>780.6900000000001</v>
       </c>
       <c r="C9" s="2">
-        <v>1294.73</v>
+        <v>531.51</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>249.1800000000001</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -3000,22 +3346,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
-        <v>250</v>
+        <v>216.08</v>
       </c>
       <c r="C10" s="2">
-        <v>250</v>
+        <v>447.35</v>
       </c>
       <c r="D10" s="2">
-        <v>0</v>
+        <v>-231.27</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
+        <v>-35403.99</v>
       </c>
       <c r="F10" s="2">
-        <v>0</v>
+        <v>-35403.99</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -3023,39 +3369,39 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2">
-        <v>702.04</v>
+        <v>450</v>
       </c>
       <c r="C11" s="2">
-        <v>684.13</v>
+        <v>444.89</v>
       </c>
       <c r="D11" s="2">
-        <v>17.90999999999997</v>
+        <v>5.110000000000014</v>
       </c>
       <c r="E11" s="2">
-        <v>-29547.54</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>-29547.54</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>3.637978807091713E-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
-        <v>296.19</v>
+        <v>603.26</v>
       </c>
       <c r="C12" s="2">
-        <v>296.19</v>
+        <v>344.72</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>258.54</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -3069,16 +3415,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2">
-        <v>1200</v>
+        <v>265.06</v>
       </c>
       <c r="C13" s="2">
-        <v>1200</v>
+        <v>258.3</v>
       </c>
       <c r="D13" s="2">
-        <v>0</v>
+        <v>6.759999999999991</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -3092,13 +3438,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>896.2800000000001</v>
+        <v>364.47</v>
       </c>
       <c r="C14" s="2">
-        <v>896.2800000000001</v>
+        <v>364.47</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -3115,16 +3461,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2">
-        <v>523.6</v>
+        <v>2651.61</v>
       </c>
       <c r="C15" s="2">
-        <v>258.3</v>
+        <v>2616.48</v>
       </c>
       <c r="D15" s="2">
-        <v>265.3</v>
+        <v>35.12999999999965</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -3138,16 +3484,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>550.87</v>
+        <v>1437.07</v>
       </c>
       <c r="C16" s="2">
-        <v>536.8200000000001</v>
+        <v>1441.77</v>
       </c>
       <c r="D16" s="2">
-        <v>14.04999999999995</v>
+        <v>-4.700000000000045</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -3161,16 +3507,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2">
-        <v>826.12</v>
+        <v>0</v>
       </c>
       <c r="C17" s="2">
-        <v>805.04</v>
+        <v>1579.84</v>
       </c>
       <c r="D17" s="2">
-        <v>21.08000000000004</v>
+        <v>-1579.84</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -3184,16 +3530,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2">
-        <v>387.81</v>
+        <v>760.8200000000001</v>
       </c>
       <c r="C18" s="2">
-        <v>775.62</v>
+        <v>236.78</v>
       </c>
       <c r="D18" s="2">
-        <v>-387.81</v>
+        <v>524.0400000000001</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -3207,16 +3553,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2">
-        <v>1824.88</v>
+        <v>2351.51</v>
       </c>
       <c r="C19" s="2">
-        <v>1400.42</v>
+        <v>2360.29</v>
       </c>
       <c r="D19" s="2">
-        <v>424.46</v>
+        <v>-8.779999999999745</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -3229,49 +3575,26 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="2">
-        <v>2006.8</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2816.62</v>
-      </c>
-      <c r="D20" s="2">
-        <v>-809.8199999999997</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="3">
-        <v>18225.86</v>
-      </c>
-      <c r="C21" s="3">
-        <v>19159.86</v>
-      </c>
-      <c r="D21" s="4">
-        <v>-934</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-39586.17</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-39586.44</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0.27</v>
+      <c r="A20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3">
+        <v>16035.39</v>
+      </c>
+      <c r="C20" s="3">
+        <v>17366.56</v>
+      </c>
+      <c r="D20" s="4">
+        <v>-1331.17</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-38643.35</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-38643.35</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3290,9 +3613,10 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="5" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3323,13 +3647,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <v>180.14</v>
+        <v>339.2</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>334.61</v>
       </c>
       <c r="D2" s="2">
-        <v>180.14</v>
+        <v>4.589999999999975</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -3343,16 +3667,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>587.89</v>
       </c>
       <c r="C3" s="2">
-        <v>175.55</v>
+        <v>575.4400000000001</v>
       </c>
       <c r="D3" s="2">
-        <v>-175.55</v>
+        <v>12.44999999999993</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -3366,16 +3690,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2">
-        <v>487.89</v>
+        <v>113.5</v>
       </c>
       <c r="C4" s="2">
-        <v>475.4400000000001</v>
+        <v>113.5</v>
       </c>
       <c r="D4" s="2">
-        <v>12.44999999999993</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -3389,16 +3713,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2">
-        <v>300.24</v>
+        <v>435.24</v>
       </c>
       <c r="C5" s="2">
-        <v>292.58</v>
+        <v>281.29</v>
       </c>
       <c r="D5" s="2">
-        <v>7.660000000000025</v>
+        <v>153.95</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -3412,16 +3736,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2">
-        <v>163.77</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>159.59</v>
+        <v>146.29</v>
       </c>
       <c r="D6" s="2">
-        <v>4.180000000000007</v>
+        <v>-146.29</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -3435,16 +3759,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>163.77</v>
+        <v>327.54</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>159.59</v>
       </c>
       <c r="D7" s="2">
-        <v>163.77</v>
+        <v>167.95</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -3458,13 +3782,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2">
-        <v>227</v>
+        <v>100</v>
       </c>
       <c r="C8" s="2">
-        <v>386.59</v>
+        <v>259.59</v>
       </c>
       <c r="D8" s="2">
         <v>-159.59</v>
@@ -3481,39 +3805,39 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>85.23</v>
+        <v>300</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="D9" s="2">
-        <v>85.23</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>-6420.690000000001</v>
+        <v>-8041.44</v>
       </c>
       <c r="F9" s="2">
-        <v>-6420.69</v>
+        <v>-8041.44</v>
       </c>
       <c r="G9" s="2">
-        <v>-9.094947017729282E-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2">
-        <v>83.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2">
-        <v>-83.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -3527,7 +3851,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
         <v>186.78</v>
@@ -3550,16 +3874,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2">
-        <v>296.99</v>
+        <v>657.27</v>
       </c>
       <c r="C12" s="2">
-        <v>289.42</v>
+        <v>743.26</v>
       </c>
       <c r="D12" s="2">
-        <v>7.569999999999993</v>
+        <v>-85.99000000000001</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -3573,16 +3897,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
-        <v>360.28</v>
+        <v>180.14</v>
       </c>
       <c r="C13" s="2">
-        <v>351.1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2">
-        <v>9.17999999999995</v>
+        <v>180.14</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -3596,16 +3920,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2">
-        <v>281.64</v>
+        <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>101.5</v>
+        <v>277.39</v>
       </c>
       <c r="D14" s="2">
-        <v>180.14</v>
+        <v>-277.39</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -3619,16 +3943,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>451.1</v>
+        <v>291.57</v>
       </c>
       <c r="C15" s="2">
-        <v>334.18</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>116.92</v>
+        <v>291.57</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -3642,25 +3966,25 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3">
-        <v>3184.83</v>
+        <v>3619.13</v>
       </c>
       <c r="C16" s="3">
-        <v>2831.36</v>
+        <v>3472.97</v>
       </c>
       <c r="D16" s="4">
-        <v>353.47</v>
+        <v>146.16</v>
       </c>
       <c r="E16" s="3">
-        <v>-6420.690000000001</v>
+        <v>-8041.44</v>
       </c>
       <c r="F16" s="3">
-        <v>-6420.69</v>
+        <v>-8041.44</v>
       </c>
       <c r="G16" s="4">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
